--- a/A-开发相关文档素材/3.测试用例/参与人/查询群成员 - 测试用例.xlsx
+++ b/A-开发相关文档素材/3.测试用例/参与人/查询群成员 - 测试用例.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>用例接口</t>
   </si>
@@ -90,6 +90,24 @@
     <t>不传userId参数项，检查结果是否正确</t>
   </si>
   <si>
+    <t>int类型传入极端值</t>
+  </si>
+  <si>
+    <t>userId为int最大值+1，其他入参正常，检查结果是否正确</t>
+  </si>
+  <si>
+    <t>返回错误:请求参数错误，请检查后重新输入后台抛错:请求参数错误，请检查后重新输入</t>
+  </si>
+  <si>
+    <t>userId为int最小值-1，其他入参正常，检查结果是否正确</t>
+  </si>
+  <si>
+    <t>findType为int最大值+1，其他入参正常，检查结果是否正确</t>
+  </si>
+  <si>
+    <t>findType为int最小值-1，其他入参正常，检查结果是否正确</t>
+  </si>
+  <si>
     <t>findType为""或者null</t>
   </si>
   <si>
@@ -138,11 +156,20 @@
     <t>findType必须为1或2</t>
   </si>
   <si>
-    <t>findType不是1或2，其他入参正常，检查结果是否正确</t>
+    <t>findType不是1或2且在正常取值范围内，其他入参正常，检查结果是否正确</t>
   </si>
   <si>
     <t>返回错误：查询失败
 后台抛错：请输入正确的查询类型</t>
+  </si>
+  <si>
+    <t>传入不同的参数类型</t>
+  </si>
+  <si>
+    <t>findType不传入int类型，其他入参正常，检查结果是否正确</t>
+  </si>
+  <si>
+    <t>userId不传入int类型，其他入参正常，检查结果是否正确</t>
   </si>
   <si>
     <t>入参项目异常</t>
@@ -988,7 +1015,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1023,6 +1050,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1034,7 +1064,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
@@ -1496,10 +1529,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C19" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1526,7 +1559,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
-      <c r="K1" s="19"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="6"/>
@@ -1541,7 +1574,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="19"/>
+      <c r="K2" s="21"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="6" t="s">
@@ -1574,7 +1607,7 @@
       <c r="J3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="22" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1588,13 +1621,13 @@
       <c r="C4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="3"/>
@@ -1607,15 +1640,15 @@
       <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="11"/>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="3"/>
@@ -1628,15 +1661,15 @@
       <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="12" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="3"/>
@@ -1645,21 +1678,19 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" ht="25" customHeight="1" spans="1:11">
-      <c r="A7" s="9">
-        <v>4</v>
-      </c>
-      <c r="B7" s="12"/>
+    <row r="7" ht="24" spans="1:11">
+      <c r="A7" s="9"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="12" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="3"/>
@@ -1668,19 +1699,17 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" ht="24" customHeight="1" spans="1:11">
-      <c r="A8" s="9">
-        <v>5</v>
-      </c>
-      <c r="B8" s="12"/>
+    <row r="8" ht="24" spans="1:11">
+      <c r="A8" s="9"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="12" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="3"/>
@@ -1689,19 +1718,17 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" ht="26" customHeight="1" spans="1:11">
-      <c r="A9" s="9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="12"/>
+    <row r="9" ht="24" spans="1:11">
+      <c r="A9" s="9"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="11"/>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="12" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="3"/>
@@ -1710,21 +1737,17 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" ht="26" customHeight="1" spans="1:11">
-      <c r="A10" s="9">
-        <v>8</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="11" t="s">
+    <row r="10" ht="24" spans="1:11">
+      <c r="A10" s="9"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="11" t="s">
+      <c r="E10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="3"/>
@@ -1733,21 +1756,21 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" ht="26" customHeight="1" spans="1:11">
+    <row r="11" ht="25" customHeight="1" spans="1:11">
       <c r="A11" s="9">
-        <v>9</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="12" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="3"/>
@@ -1756,19 +1779,19 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" ht="26" customHeight="1" spans="1:11">
+    <row r="12" ht="24" customHeight="1" spans="1:11">
       <c r="A12" s="9">
-        <v>10</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>18</v>
       </c>
       <c r="G12" s="3"/>
@@ -1779,17 +1802,17 @@
     </row>
     <row r="13" ht="26" customHeight="1" spans="1:11">
       <c r="A13" s="9">
-        <v>11</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="E13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="3"/>
@@ -1800,21 +1823,19 @@
     </row>
     <row r="14" ht="26" customHeight="1" spans="1:11">
       <c r="A14" s="9">
-        <v>12</v>
-      </c>
-      <c r="B14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="12" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="3"/>
@@ -1823,49 +1844,43 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" ht="21" customHeight="1" spans="1:11">
-      <c r="A15" s="15">
-        <v>13</v>
-      </c>
-      <c r="B15" s="15" t="s">
+    <row r="15" ht="26" customHeight="1" spans="1:11">
+      <c r="A15" s="9">
+        <v>9</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" ht="26" customHeight="1" spans="1:11">
+      <c r="A16" s="9">
+        <v>10</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" ht="28" customHeight="1" spans="1:11">
-      <c r="A16" s="9">
-        <v>14</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>42</v>
+      <c r="E16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -1873,24 +1888,20 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" ht="28" customHeight="1" spans="1:11">
+    <row r="17" ht="26" customHeight="1" spans="1:11">
       <c r="A17" s="9">
-        <v>15</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>42</v>
+        <v>11</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -1898,22 +1909,24 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" ht="24" spans="1:11">
+    <row r="18" ht="26" customHeight="1" spans="1:11">
       <c r="A18" s="9">
-        <v>16</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18" t="s">
-        <v>51</v>
+        <v>12</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1921,21 +1934,162 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
+    <row r="19" ht="26" customHeight="1" spans="1:11">
+      <c r="A19" s="9"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" ht="26" customHeight="1" spans="1:11">
+      <c r="A20" s="9"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" ht="21" customHeight="1" spans="1:11">
+      <c r="A21" s="11">
+        <v>13</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" ht="28" customHeight="1" spans="1:11">
+      <c r="A22" s="9">
+        <v>14</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" ht="28" customHeight="1" spans="1:11">
+      <c r="A23" s="9">
+        <v>15</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" ht="24" spans="1:11">
+      <c r="A24" s="9">
+        <v>16</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="B4:B17"/>
+    <mergeCell ref="B18:B20"/>
     <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C7:C10"/>
     <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C19:C20"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3 G4 G5 G6 G7 G8 G9 G10 G11:G13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3 G4 G5 G6 G10 G11 G12 G13 G14 G7:G9 G15:G17">
       <formula1>测试结果</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F24">
       <formula1>类型</formula1>
     </dataValidation>
   </dataValidations>
@@ -1957,7 +2111,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>9</v>
@@ -1965,10 +2119,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1976,15 +2130,15 @@
         <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2014,31 +2168,31 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:9">
